--- a/Mini_Project/Data Collection/Schools.xlsx
+++ b/Mini_Project/Data Collection/Schools.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc\NITK\S2\NitkS2\Mini_Project\Data Collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc\NITK\S2\Git\S2_Nitk\Mini_Project\Data Collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC16639-EBBF-438A-AC7C-EF2C69F2731A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FC87FC-3B04-4DB1-AFFE-FCD1BEEE32FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>KRHS - 16032</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>G V H S S Meppayur-16014</t>
+  </si>
+  <si>
+    <t>G.V.H.S.S. Payyoli - 16055</t>
   </si>
 </sst>
 </file>
@@ -383,24 +386,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
     <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="5" width="27.5546875" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.21875" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,8 +426,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>186</v>
       </c>
@@ -445,8 +452,11 @@
       <c r="G2">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>173</v>
       </c>
@@ -468,8 +478,11 @@
       <c r="G3">
         <v>570</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>94</v>
       </c>
@@ -491,8 +504,11 @@
       <c r="G4">
         <v>607</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>108</v>
       </c>
@@ -514,8 +530,11 @@
       <c r="G5">
         <v>123</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>116</v>
       </c>
@@ -537,8 +556,11 @@
       <c r="G6">
         <v>270</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>114</v>
       </c>
@@ -560,8 +582,11 @@
       <c r="G7">
         <v>295</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>24</v>
       </c>
@@ -583,8 +608,11 @@
       <c r="G8">
         <v>794</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>41</v>
       </c>
@@ -606,8 +634,11 @@
       <c r="G9">
         <v>782</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>60</v>
       </c>
@@ -629,8 +660,11 @@
       <c r="G10">
         <v>763</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>67</v>
       </c>
@@ -652,8 +686,11 @@
       <c r="G11">
         <v>730</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>98</v>
       </c>
@@ -675,8 +712,11 @@
       <c r="G12">
         <v>722</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>110</v>
       </c>
@@ -698,8 +738,11 @@
       <c r="G13">
         <v>486</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>543</v>
       </c>
@@ -715,8 +758,11 @@
       <c r="G14">
         <v>423</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>559</v>
       </c>
@@ -732,8 +778,11 @@
       <c r="G15">
         <v>379</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
         <v>12</v>
       </c>
@@ -749,8 +798,11 @@
       <c r="G16">
         <v>249</v>
       </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>24</v>
       </c>
@@ -766,8 +818,11 @@
       <c r="G17">
         <v>241</v>
       </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>57</v>
       </c>
@@ -783,8 +838,11 @@
       <c r="G18">
         <v>213</v>
       </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>92</v>
       </c>
@@ -801,7 +859,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>420</v>
       </c>
@@ -818,7 +876,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>154</v>
       </c>
@@ -835,7 +893,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>92</v>
       </c>
@@ -852,7 +910,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>382</v>
       </c>
@@ -869,7 +927,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D24">
         <v>358</v>
       </c>
@@ -883,7 +941,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D25">
         <v>372</v>
       </c>
@@ -897,7 +955,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D26">
         <v>389</v>
       </c>
@@ -911,7 +969,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D27">
         <v>429</v>
       </c>
@@ -925,7 +983,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D28">
         <v>425</v>
       </c>
@@ -939,7 +997,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D29">
         <v>494</v>
       </c>
@@ -953,7 +1011,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D30">
         <v>485</v>
       </c>
@@ -967,7 +1025,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D31">
         <v>477</v>
       </c>
@@ -981,7 +1039,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D32">
         <v>450</v>
       </c>
@@ -1438,6 +1496,26 @@
     <row r="82" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G82">
         <v>391</v>
+      </c>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G83">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="84" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G84">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G85">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="86" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G86">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/Mini_Project/Data Collection/Schools.xlsx
+++ b/Mini_Project/Data Collection/Schools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc\NITK\S2\Git\S2_Nitk\Mini_Project\Data Collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FC87FC-3B04-4DB1-AFFE-FCD1BEEE32FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C54B94-4F88-4266-8C32-A6C06B7C8DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,6 +858,9 @@
       <c r="G19">
         <v>360</v>
       </c>
+      <c r="H19">
+        <v>194</v>
+      </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20">
@@ -875,6 +878,9 @@
       <c r="G20">
         <v>375</v>
       </c>
+      <c r="H20">
+        <v>302</v>
+      </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21">
@@ -892,6 +898,9 @@
       <c r="G21">
         <v>402</v>
       </c>
+      <c r="H21">
+        <v>313</v>
+      </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22">
@@ -909,6 +918,9 @@
       <c r="G22">
         <v>416</v>
       </c>
+      <c r="H22">
+        <v>338</v>
+      </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23">
@@ -926,6 +938,9 @@
       <c r="G23">
         <v>430</v>
       </c>
+      <c r="H23">
+        <v>360</v>
+      </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D24">
@@ -940,6 +955,9 @@
       <c r="G24">
         <v>557</v>
       </c>
+      <c r="H24">
+        <v>449</v>
+      </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D25">
@@ -954,6 +972,9 @@
       <c r="G25">
         <v>67</v>
       </c>
+      <c r="H25">
+        <v>494</v>
+      </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D26">
@@ -968,6 +989,9 @@
       <c r="G26">
         <v>546</v>
       </c>
+      <c r="H26">
+        <v>528</v>
+      </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D27">
@@ -982,6 +1006,9 @@
       <c r="G27">
         <v>556</v>
       </c>
+      <c r="H27">
+        <v>538</v>
+      </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D28">
@@ -996,6 +1023,9 @@
       <c r="G28">
         <v>659</v>
       </c>
+      <c r="H28">
+        <v>557</v>
+      </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D29">
@@ -1010,6 +1040,9 @@
       <c r="G29">
         <v>680</v>
       </c>
+      <c r="H29">
+        <v>565</v>
+      </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D30">
@@ -1024,6 +1057,9 @@
       <c r="G30">
         <v>697</v>
       </c>
+      <c r="H30">
+        <v>568</v>
+      </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D31">
@@ -1038,6 +1074,9 @@
       <c r="G31">
         <v>741</v>
       </c>
+      <c r="H31">
+        <v>552</v>
+      </c>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D32">
@@ -1052,8 +1091,11 @@
       <c r="G32">
         <v>771</v>
       </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D33">
         <v>436</v>
       </c>
@@ -1066,8 +1108,11 @@
       <c r="G33">
         <v>804</v>
       </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D34">
         <v>426</v>
       </c>
@@ -1080,8 +1125,11 @@
       <c r="G34">
         <v>664</v>
       </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D35">
         <v>408</v>
       </c>
@@ -1094,8 +1142,11 @@
       <c r="G35">
         <v>663</v>
       </c>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D36">
         <v>402</v>
       </c>
@@ -1108,8 +1159,11 @@
       <c r="G36">
         <v>650</v>
       </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D37">
         <v>140</v>
       </c>
@@ -1122,8 +1176,11 @@
       <c r="G37">
         <v>623</v>
       </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D38">
         <v>142</v>
       </c>
@@ -1136,8 +1193,11 @@
       <c r="G38">
         <v>615</v>
       </c>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D39">
         <v>144</v>
       </c>
@@ -1150,8 +1210,11 @@
       <c r="G39">
         <v>95</v>
       </c>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D40">
         <v>198</v>
       </c>
@@ -1164,8 +1227,11 @@
       <c r="G40">
         <v>113</v>
       </c>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D41">
         <v>205</v>
       </c>
@@ -1175,8 +1241,11 @@
       <c r="G41">
         <v>125</v>
       </c>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D42">
         <v>240</v>
       </c>
@@ -1186,8 +1255,11 @@
       <c r="G42">
         <v>553</v>
       </c>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D43">
         <v>245</v>
       </c>
@@ -1197,8 +1269,11 @@
       <c r="G43">
         <v>565</v>
       </c>
-    </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D44">
         <v>263</v>
       </c>
@@ -1208,8 +1283,11 @@
       <c r="G44">
         <v>602</v>
       </c>
-    </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D45">
         <v>248</v>
       </c>
@@ -1219,8 +1297,11 @@
       <c r="G45">
         <v>657</v>
       </c>
-    </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D46">
         <v>250</v>
       </c>
@@ -1230,8 +1311,11 @@
       <c r="G46">
         <v>624</v>
       </c>
-    </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D47">
         <v>271</v>
       </c>
@@ -1241,8 +1325,11 @@
       <c r="G47">
         <v>610</v>
       </c>
-    </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48">
         <v>284</v>
       </c>
@@ -1252,8 +1339,11 @@
       <c r="G48">
         <v>574</v>
       </c>
-    </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D49">
         <v>287</v>
       </c>
@@ -1263,8 +1353,11 @@
       <c r="G49">
         <v>564</v>
       </c>
-    </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D50">
         <v>413</v>
       </c>
@@ -1274,8 +1367,11 @@
       <c r="G50">
         <v>545</v>
       </c>
-    </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D51">
         <v>424</v>
       </c>
@@ -1286,7 +1382,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D52">
         <v>430</v>
       </c>
@@ -1297,7 +1393,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D53">
         <v>297</v>
       </c>
@@ -1308,7 +1404,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D54">
         <v>395</v>
       </c>
@@ -1319,7 +1415,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D55">
         <v>268</v>
       </c>
@@ -1330,7 +1426,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F56">
         <v>189</v>
       </c>
@@ -1338,7 +1434,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F57">
         <v>234</v>
       </c>
@@ -1346,7 +1442,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F58">
         <v>268</v>
       </c>
@@ -1354,7 +1450,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F59">
         <v>254</v>
       </c>
@@ -1362,7 +1458,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F60">
         <v>291</v>
       </c>
@@ -1370,7 +1466,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F61">
         <v>414</v>
       </c>
@@ -1378,7 +1474,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F62">
         <v>464</v>
       </c>
@@ -1386,7 +1482,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F63">
         <v>478</v>
       </c>
@@ -1394,7 +1490,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F64">
         <v>484</v>
       </c>
